--- a/cypress/downloads/resultsApproval_FTTHBackhaul.xlsx
+++ b/cypress/downloads/resultsApproval_FTTHBackhaul.xlsx
@@ -421,7 +421,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-09T12:07:37.935Z</v>
+        <v>2025-02-09T15:53:31.699Z</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-02-09T12:07:43.753Z</v>
+        <v>2025-02-09T15:53:37.705Z</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>Pass</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-02-09T12:07:44.002Z</v>
+        <v>2025-02-09T15:53:37.981Z</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +454,7 @@
         <v>Pass</v>
       </c>
       <c r="C5" t="str">
-        <v>2025-02-09T12:08:01.144Z</v>
+        <v>2025-02-09T15:53:58.828Z</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
         <v>Pass</v>
       </c>
       <c r="C6" t="str">
-        <v>2025-02-09T12:08:07.203Z</v>
+        <v>2025-02-09T15:54:04.626Z</v>
       </c>
     </row>
     <row r="7">
@@ -476,7 +476,7 @@
         <v>Pass</v>
       </c>
       <c r="C7" t="str">
-        <v>2025-02-09T12:08:07.393Z</v>
+        <v>2025-02-09T15:54:04.825Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_FTTHBackhaul.xlsx
+++ b/cypress/downloads/resultsApproval_FTTHBackhaul.xlsx
@@ -397,91 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Test</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="C1" t="str">
-        <v>TimeStamp</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2025-02-09T15:53:31.699Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2025-02-09T15:53:37.705Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2025-02-09T15:53:37.981Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-02-09T15:53:58.828Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2025-02-09T15:54:04.626Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C7" t="str">
-        <v>2025-02-09T15:54:04.825Z</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>